--- a/335Lab/Lab 2/Data/FullData.xlsx
+++ b/335Lab/Lab 2/Data/FullData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class Work\Current\ME335\335 Lab\Lab 2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class Work\Current\ME335\335Lab\Lab 2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E15287-1BDC-48AD-B4BF-DDAB20C48DAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D429285-F82F-47B7-9D44-6E9ED46332B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12030" yWindow="5370" windowWidth="18435" windowHeight="9765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group2_raw" sheetId="1" r:id="rId1"/>
@@ -993,8 +993,8 @@
   <dimension ref="A1:N538"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A402" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N444" sqref="N444"/>
+      <pane ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N504" sqref="N504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22077,12 +22077,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C35235A0CBEA4E4BA44A492B72CB0F55" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70e5c958f602f45486ea9c9e3e1161eb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6112e395-b193-4778-b513-460523810ab5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df585931453734ed62ad13ba882f2bc2" ns2:_="">
     <xsd:import namespace="6112e395-b193-4778-b513-460523810ab5"/>
@@ -22214,6 +22208,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CDCCB32-1354-4C88-8729-9AB1664891EC}">
   <ds:schemaRefs>
@@ -22223,15 +22223,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C862AD8-392E-4441-8EF7-A48511E329E5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BBA752E-3178-4A5A-9C93-41536B8ECD51}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22247,4 +22238,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C862AD8-392E-4441-8EF7-A48511E329E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>